--- a/Movie Marathons.xlsx
+++ b/Movie Marathons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t xml:space="preserve">Marathon Name</t>
   </si>
@@ -36,6 +36,309 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Austin Powers Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 38min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin Powers: International Man of Mystery (1997), Austin Powers: The Spy Who Shagged Me (1999), Austin Powers in Goldmember (2002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to the Future Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5hrs 42min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to the Future (1985), Back to the Future Part II (1989), Back to the Future Part III (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade Runner Dilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 40min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade Runner (1982), Blade Runner 2049 (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloverfield Dilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3hrs 9min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloverfield (2008), 10 Cloverfield Lane (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornetto Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5hrs 29min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun of the Dead (2004), Hot Fuzz (2007), The World's End (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Extended Universe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10hrs 3min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man of Steel (2013), Batman v Superman: Dawn of Justice (2016)*, Suicide Squad (2016)*, Wonder Woman (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Hard Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10hrs 9min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Hard (1988), Die Hard 2 (1990), Die Hard with a Vengeance (1995), Live Free or Die Hard (2007), A Good Day to Die Hard (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast and Furious Octalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15hrs 58min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fast and the Furious (2001), 2 Fast 2 Furious (2003), The Fast and the Furious: Tokyo Drift (2006), Fast &amp; Furious (2009), Fast Five (2011), Fast &amp; Furious 6 (2013), Furious 7 (2015), The Fate of the Furious (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostbusters Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostbusters (1984), Ghostbusters II (1989), Ghostbusters (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter Octalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19hrs 39min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter and the Sorcerer's Stone (2001), Harry Potter and the Chamber of Secrets (2002), Harry Potter and the Prisoner of Azkaban (2004), Harry Potter and the Goblet of Fire (2005), Harry Potter and the Order of the Phoenix (2007), Harry Potter and the Half-Blood Prince (2009), Harry Potter and the Deathly Hallows: Part 1 (2010), Harry Potter and the Deathly Hallows: Part 2 (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellboy Dilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 2min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellboy (2004), Hellboy II: The Golden Army (2008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana Jones Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8hrs 2min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiders of the Lost Ark (1981), Indiana Jones and the Temple of Doom (1984), Indiana Jones and the Last Crusade (1989), Indiana Jones and the Kingdom of the Crystal Skull (2008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Park Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7hrs 52min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Park (1993), The Lost World: Jurassic Park (1997), Jurassic Park III (2001), Jurassic World (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Max Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 49min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Max (1979), Mad Max 2: The Road Warrior (1981), Mad Max Beyond Thunderdome (1985), Mad Max: Fury Road (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvel Cinematic Universe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33hrs 52min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Man (2008), The Incredible Hulk (2008), Iron Man 2 (2010), Thor (2011), Captain America: The First Avenger (2011), The Avengers (2012), Iron Man 3 (2013), Thor: The Dark World (2013), Captain America: The Winter Soldier (2014), Guardians of the Galaxy (2014), Avengers: Age of Ultron (2015), Ant-Man (2015), Captain America: Civil War (2016), Doctor Strange (2016), Guardians of the Galaxy Vol. 2 (2017), Spider-Man: Homecoming (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission: Impossible Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10hrs 23min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission: Impossible (1996), Mission: Impossible II (2000), Mission: Impossible III (2006), Mission: Impossible - Ghost Protocol (2011), Mission: Impossible - Rouge Nation (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Generation Star Trek Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7hrs 28min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Trek: Insurrection (1998), Star Trek: Generations (1994), Star Trek: First Contact (1996), Star Trek: Nemesis (2002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Star Trek Hexalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11hrs 29min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Trek: The Motion Picture (1979), Star Trek II: The Wrath of Khan (1982), Star Trek III: The Search for Spock (1984), Star Trek IV: The Voyage Home (1986), Star Trek V: The Final Frontier (1989), Star Trek VI: The Undiscovered Country (1991)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirates of the Caribbean Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12hrs 8min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirates of the Caribbean: The Curse of the Black Pearl (2003), Pirates of the Caribbean: Dead Man's Chest (2006), Pirates of the Caribbean: At World's End (2007), Pirates of the Caribbean: On Stranger Tides (2011), Pirates of the Caribbean: Dead Men Tell No Tales (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet of the Apes Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8hrs 6min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet of the Apes (1968), Beneath the Planet of the Apes (1970), Escape from the Planet of the Apes (1971), Conquest of the Planet of the Apes (1972), Battle for the Planet of the Apes (1973)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet of the Apes Reboot Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 20min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rise of the Planet of the Apes (2011), Dawn of the Planet of the Apes (2014), War for the Planet of the Apes (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident Evil Hexalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9hrs 47min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident Evil (2002), Resident Evil: Apocalypse (2004), Resident Evil: Extinction (2007), Resident Evil: Afterlife (2010), Resident Evil: Retribution (2012), Resident Evil: The Final Chapter (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocky Heptalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12hrs 48min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocky (1976), Rocky II (1979), Rocky III (1982), Rocky IV (1985), Rocky V (1990), Rocky Balboa (2006), Creed (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rush Hour Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 39min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rush Hour (1998), Rush Hour 2 (2001), Rush Hour 3 (2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scary Movie Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7hr 4min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scary Movie (2000), Scary Movie 2 (2001), Scary Movie 3 (2003), Scary Movie 4 (2006), Scary Movie 5 (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Dilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3hrs 44min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Noon (2000), Shanghai Knights (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherlock Holmes Dilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 17min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherlock Holmes (2009), Sherlock Holmes: A Game of Shadows (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrek Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 9min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrek (2001), Shrek 2 (2004), Shrek the Third (2007), Shrek Forever After (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 27min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man (2002), Spider-Man 2 (2004), Spider-Man 3 (2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Trek Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 21min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Trek (2009),  Star Trek Into Darkness (2013), Star Trek Beyond (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars Octalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17hrs 43min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars: Episode IV - A New Hope (1977), Star Wars: Episode V - The Empire Strikes Back (1980), Star Wars: Episode VI - Return of the Jedi (1983), Star Wars: Episode I - The Phantom Menace (1999), Star Wars: Episode II - Attack of the Clones (2002), Star Wars: Episode III - Revenge of the Sith (2005), Star Wars: The Force Awakens (2015), Rogue One: A Star Wars Story (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hrs 54min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken (2008), Taken 2 (2012), Taken 3 (2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminator Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9hrs 54min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Terminator (1984), Terminator 2: Judgment Day (1991), Terminator 3: Rise of the Machines (2003), Terminator Salvation (2009), Terminator Genisys (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bourne Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bourne Identity (2002), The Bourne Supremacy (2004), The Bourne Ultimatum (2007), The Bourne Ultimatum (2007), Jason Bourne (2016)</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Dark Knight Trilogy</t>
   </si>
   <si>
@@ -45,6 +348,30 @@
     <t xml:space="preserve">Batman Begins (2005), The Dark Knight (2008), The Dark Knight Rises (2012)</t>
   </si>
   <si>
+    <t xml:space="preserve">The Hobbit Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8hrs 52min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hobbit: An Unexpected Journey (2012), The Hobbit: The Desolation of Smaug (2013), The Hobbit: The Battle of the Five Armies (2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length is for Extended Edition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lord of the Rings Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11hrs 25min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lord of the Rings: The Fellow Ship of the Ring (2001), The Lord of the Rings: The Two Towers (2002), The Lord of the Rings: The Return of the King (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length is for the DVD Extended Edition, Blu-ray Extended Edition contains extra credits only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Matrix Trilogy</t>
   </si>
   <si>
@@ -54,136 +381,13 @@
     <t xml:space="preserve">The Matrix (1999), The Matrix Reloaded (2003), The Matrix Revolutions (2003)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mission: Impossible Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10hrs 23min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission: Impossible (1996), Mission: Impossible II (2000), Mission: Impossible III (2006), Mission: Impossible - Ghost Protocol (2011), Mission: Impossible - Rouge Nation (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Hard Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10hrs 9min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Hard (1988), Die Hard 2 (1990), Die Hard with a Vengeance (1995), Live Free or Die Hard (2007), A Good Day to Die Hard (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana Jones Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8hrs 2min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raiders of the Lost Ark (1981), Indiana Jones and the Temple of Doom (1984), Indiana Jones and the Last Crusade (1989), Indiana Jones and the Kingdom of the Crystal Skull (2008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lord of the Rings Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11hrs 25min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lord of the Rings: The Fellow Ship of the Ring (2001), The Lord of the Rings: The Two Towers (2002), The Lord of the Rings: The Return of the King (2003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length is for the DVD Extended Edition, Blu-ray Extended Edition contains extra credits only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hobbit Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8hrs 52min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hobbit: An Unexpected Journey (2012), The Hobbit: The Desolation of Smaug (2013), The Hobbit: The Battle of the Five Armies (2014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length is for Extended Edition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin Powers Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4hrs 38min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin Powers: International Man of Mystery (1997), Austin Powers: The Spy Who Shagged Me (1999), Austin Powers in Goldmember (2002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bourne Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bourne Identity (2002), The Bourne Supremacy (2004), The Bourne Ultimatum (2007), The Bourne Ultimatum (2007), Jason Bourne (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloverfield Dilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3hrs 9min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloverfield (2008), 10 Cloverfield Lane (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Wars Octalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17hrs 43min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Wars: Episode IV - A New Hope (1977), Star Wars: Episode V - The Empire Strikes Back (1980), Star Wars: Episode VI - Return of the Jedi (1983), Star Wars: Episode I - The Phantom Menace (1999), Star Wars: Episode II - Attack of the Clones (2002), Star Wars: Episode III - Revenge of the Sith (2005), Star Wars: The Force Awakens (2015), Rogue One: A Star Wars Story (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter Octalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19hrs 39min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter and the Sorcerer's Stone (2001), Harry Potter and the Chamber of Secrets (2002), Harry Potter and the Prisoner of Azkaban (2004), Harry Potter and the Goblet of Fire (2005), Harry Potter and the Order of the Phoenix (2007), Harry Potter and the Half-Blood Prince (2009), Harry Potter and the Deathly Hallows: Part 1 (2010), Harry Potter and the Deathly Hallows: Part 2 (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornetto Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5hrs 29min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaun of the Dead (2004), Hot Fuzz (2007), The World's End (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirates of the Caribbean Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12hrs 8min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirates of the Caribbean: The Curse of the Black Pearl (2003), Pirates of the Caribbean: Dead Man's Chest (2006), Pirates of the Caribbean: At World's End (2007), Pirates of the Caribbean: On Stranger Tides (2011), Pirates of the Caribbean: Dead Men Tell No Tales (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fast and Furious Octalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15hrs 58min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fast and the Furious (2001), 2 Fast 2 Furious (2003), The Fast and the Furious: Tokyo Drift (2006), Fast &amp; Furious (2009), Fast Five (2011), Fast &amp; Furious 6 (2013), Furious 7 (2015), The Fate of the Furious (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurassic Park Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7hrs 52min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurassic Park (1993), The Lost World: Jurassic Park (1997), Jurassic Park III (2001), Jurassic World (2015)</t>
+    <t xml:space="preserve">The Transporter Tetralogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrs 19min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Transporter (2002), Transporter 2 (2005), Transporter 3 (2008), The Transporter Refueled (2015)</t>
   </si>
   <si>
     <t xml:space="preserve">Transformers Pentalogy</t>
@@ -195,6 +399,15 @@
     <t xml:space="preserve">Transformers (2007), Transformers: Revenge of the Fallen (2009), Transformers: Dark of the Moon (2011), Transformers: Age of Extinction (2014), Transformers: The Last Knight (2017)</t>
   </si>
   <si>
+    <t xml:space="preserve">Underworld Pentalogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8hrs 18min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underworld (2003), Underworld: Evolution (2006), Underworld: Rise of the Lycans (2009), Underworld: Awakening (2012), Underworld: Blood Wars (2016)</t>
+  </si>
+  <si>
     <t xml:space="preserve">X-Men Cinematic Universe</t>
   </si>
   <si>
@@ -202,201 +415,6 @@
   </si>
   <si>
     <t xml:space="preserve">X-Men (2000), X-Men 2 (2003), X-Men: The Last Stand (2006), X-Men Origins: Wolverine (2009), X-Men: First Class (2011), The Wolverine (2013), X-Men: Days of Future Past (2014), Deadpool (2016), X-Men: Apocalypse (2016), Logan (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scary Movie Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7hr 4min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scary Movie (2000), Scary Movie 2 (2001), Scary Movie 3 (2003), Scary Movie 4 (2006), Scary Movie 5 (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghostbusters Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghostbusters (1984), Ghostbusters II (1989), Ghostbusters (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original Star Trek Hexalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11hrs 29min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Trek: The Motion Picture (1979), Star Trek II: The Wrath of Khan (1982), Star Trek III: The Search for Spock (1984), Star Trek IV: The Voyage Home (1986), Star Trek V: The Final Frontier (1989), Star Trek VI: The Undiscovered Country (1991)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Generation Star Trek Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7hrs 28min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Trek: Insurrection (1998), Star Trek: Generations (1994), Star Trek: First Contact (1996), Star Trek: Nemesis (2002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Trek Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrs 21min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Trek (2009),  Star Trek Into Darkness (2013), Star Trek Beyond (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marvel Cinematic Universe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33hrs 52min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Man (2008), The Incredible Hulk (2008), Iron Man 2 (2010), Thor (2011), Captain America: The First Avenger (2011), The Avengers (2012), Iron Man 3 (2013), Thor: The Dark World (2013), Captain America: The Winter Soldier (2014), Guardians of the Galaxy (2014), Avengers: Age of Ultron (2015), Ant-Man (2015), Captain America: Civil War (2016), Doctor Strange (2016), Guardians of the Galaxy Vol. 2 (2017), Spider-Man: Homecoming (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC Extended Universe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10hrs 3min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man of Steel (2013), Batman v Superman: Dawn of Justice (2016)*, Suicide Squad (2016)*, Wonder Woman (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4hrs 54min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken (2008), Taken 2 (2012), Taken 3 (2014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transporter Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrs 19min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transporter (2002), Transporter 2 (2005), Transporter 3 (2008), The Transporter Refueled (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Max Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrs 49min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad Max (1979), Mad Max 2: The Road Warrior (1981), Mad Max Beyond Thunderdome (1985), Mad Max: Fury Road (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider-Man Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrs 27min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider-Man (2002), Spider-Man 2 (2004), Spider-Man 3 (2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky Heptalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12hrs 48min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky (1976), Rocky II (1979), Rocky III (1982), Rocky IV (1985), Rocky V (1990), Rocky Balboa (2006), Creed (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planet of the Apes Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8hrs 6min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planet of the Apes (1968), Beneath the Planet of the Apes (1970), Escape from the Planet of the Apes (1971), Conquest of the Planet of the Apes (1972), Battle for the Planet of the Apes (1973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to the Future Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5hrs 42min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to the Future (1985), Back to the Future Part II (1989), Back to the Future Part III (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellboy Dilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4hrs 2min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellboy (2004), Hellboy II: The Golden Army (2008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminator Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9hrs 54min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Terminator (1984), Terminator 2: Judgment Day (1991), Terminator 3: Rise of the Machines (2003), Terminator Salvation (2009), Terminator Genisys (2015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrek Tetralogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrs 9min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrek (2001), Shrek 2 (2004), Shrek the Third (2007), Shrek Forever After (2010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sherlock Holmes Dilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4hrs 17min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sherlock Holmes (2009), Sherlock Holmes: A Game of Shadows (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rush Hour Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4hrs 39min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rush Hour (1998), Rush Hour 2 (2001), Rush Hour 3 (2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghai Dilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3hrs 44min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghai Noon (2000), Shanghai Knights (2003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underworld Pentalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8hrs 18min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underworld (2003), Underworld: Evolution (2006), Underworld: Rise of the Lycans (2009), Underworld: Awakening (2012), Underworld: Blood Wars (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident Evil Hexalogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9hrs 47min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident Evil (2002), Resident Evil: Apocalypse (2004), Resident Evil: Extinction (2007), Resident Evil: Afterlife (2010), Resident Evil: Retribution (2012), Resident Evil: The Final Chapter (2016)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,18 +558,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -562,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -573,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -584,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -595,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -605,355 +623,355 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="B37" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>116</v>
       </c>
@@ -964,7 +982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>119</v>
       </c>
@@ -975,7 +993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>122</v>
       </c>
@@ -984,6 +1002,28 @@
       </c>
       <c r="C41" s="0" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1050,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData/>
